--- a/data/nzd0525/nzd0525.xlsx
+++ b/data/nzd0525/nzd0525.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G451"/>
+  <dimension ref="A1:G452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11816,6 +11816,33 @@
       <c r="G451" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:14:40+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>384.4888888888889</v>
+      </c>
+      <c r="C452" t="n">
+        <v>380.8166666666667</v>
+      </c>
+      <c r="D452" t="n">
+        <v>372.2233333333333</v>
+      </c>
+      <c r="E452" t="n">
+        <v>372.4109090909091</v>
+      </c>
+      <c r="F452" t="n">
+        <v>367.4409090909091</v>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11830,7 +11857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B484"/>
+  <dimension ref="A1:B485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16678,6 +16705,16 @@
       </c>
       <c r="B484" t="n">
         <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>-0.82</v>
       </c>
     </row>
   </sheetData>
@@ -16846,28 +16883,28 @@
         <v>0.1826</v>
       </c>
       <c r="I2" t="n">
-        <v>2.868699542188892</v>
+        <v>2.873579794105605</v>
       </c>
       <c r="J2" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K2" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6984979617097702</v>
+        <v>0.7002473834752677</v>
       </c>
       <c r="M2" t="n">
-        <v>11.33152266296888</v>
+        <v>11.3216374708169</v>
       </c>
       <c r="N2" t="n">
-        <v>197.3174678574228</v>
+        <v>196.9991035102845</v>
       </c>
       <c r="O2" t="n">
-        <v>14.04697361916163</v>
+        <v>14.03563691145808</v>
       </c>
       <c r="P2" t="n">
-        <v>302.4592544276741</v>
+        <v>302.4136497587284</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -16923,28 +16960,28 @@
         <v>0.1409</v>
       </c>
       <c r="I3" t="n">
-        <v>3.049310746326766</v>
+        <v>3.052459795842698</v>
       </c>
       <c r="J3" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K3" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6838423668882005</v>
+        <v>0.6854778731617561</v>
       </c>
       <c r="M3" t="n">
-        <v>12.42826121811346</v>
+        <v>12.40966016386494</v>
       </c>
       <c r="N3" t="n">
-        <v>235.7228244646576</v>
+        <v>235.1930122514763</v>
       </c>
       <c r="O3" t="n">
-        <v>15.35326755009036</v>
+        <v>15.33600379014938</v>
       </c>
       <c r="P3" t="n">
-        <v>297.2651693325016</v>
+        <v>297.235511112953</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -17000,28 +17037,28 @@
         <v>0.104</v>
       </c>
       <c r="I4" t="n">
-        <v>3.051117367131532</v>
+        <v>3.050971493736006</v>
       </c>
       <c r="J4" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K4" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7030174563983914</v>
+        <v>0.7042522352622422</v>
       </c>
       <c r="M4" t="n">
-        <v>11.79504901137298</v>
+        <v>11.7640390937001</v>
       </c>
       <c r="N4" t="n">
-        <v>215.4936309844545</v>
+        <v>214.9129794386709</v>
       </c>
       <c r="O4" t="n">
-        <v>14.67970132477001</v>
+        <v>14.65991062178317</v>
       </c>
       <c r="P4" t="n">
-        <v>294.8301328768063</v>
+        <v>294.8315084267606</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -17077,28 +17114,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>2.809097890537976</v>
+        <v>2.8107056160615</v>
       </c>
       <c r="J5" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K5" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6918357348875234</v>
+        <v>0.6932915991754434</v>
       </c>
       <c r="M5" t="n">
-        <v>10.78811581963514</v>
+        <v>10.76635011077021</v>
       </c>
       <c r="N5" t="n">
-        <v>192.9922966937178</v>
+        <v>192.4950859784684</v>
       </c>
       <c r="O5" t="n">
-        <v>13.89216673862352</v>
+        <v>13.87425983533782</v>
       </c>
       <c r="P5" t="n">
-        <v>297.8918098582093</v>
+        <v>297.8765009435812</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -17154,28 +17191,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>1.974661542711677</v>
+        <v>1.975948850781329</v>
       </c>
       <c r="J6" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K6" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5621402298965241</v>
+        <v>0.5639054996017103</v>
       </c>
       <c r="M6" t="n">
-        <v>10.39097258520295</v>
+        <v>10.36796517264337</v>
       </c>
       <c r="N6" t="n">
-        <v>164.6395521583943</v>
+        <v>164.2047845152519</v>
       </c>
       <c r="O6" t="n">
-        <v>12.83119449460549</v>
+        <v>12.8142414724888</v>
       </c>
       <c r="P6" t="n">
-        <v>314.8197173650378</v>
+        <v>314.8073795530461</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -17212,7 +17249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G451"/>
+  <dimension ref="A1:G452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32299,6 +32336,43 @@
         </is>
       </c>
     </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:14:40+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>-46.293739621474,169.9261703479895</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>-46.29432689980446,169.92587965050274</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>-46.2949009736583,169.92552800700267</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>-46.29549859009118,169.9252851089741</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>-46.296082367811344,169.924978336146</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0525/nzd0525.xlsx
+++ b/data/nzd0525/nzd0525.xlsx
@@ -16728,7 +16728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16819,35 +16819,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -16906,27 +16911,28 @@
       <c r="P2" t="n">
         <v>302.4136497587284</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (169.92140885945219 -46.29270839481656, 169.93226657078523 -46.2950595771139)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>169.9214088594522</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.29270839481656</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>169.9322665707852</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.2950595771139</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>169.9268377151187</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.29388398596523</v>
       </c>
     </row>
@@ -16983,27 +16989,28 @@
       <c r="P3" t="n">
         <v>297.235511112953</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (169.92116359229723 -46.29330551347761, 169.93202137495564 -46.29565670592548)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>169.9211635922972</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.29330551347761</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>169.9320213749556</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.29565670592548</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>169.9265924836265</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.29448110970155</v>
       </c>
     </row>
@@ -17060,27 +17067,28 @@
       <c r="P4" t="n">
         <v>294.8315084267606</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (169.9209183251419 -46.29390262562798, 169.9317761791269 -46.2962538282266)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>169.9209183251419</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.29390262562798</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>169.9317761791269</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.2962538282266</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>169.9263472521344</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.29507822692729</v>
       </c>
     </row>
@@ -17137,27 +17145,28 @@
       <c r="P5" t="n">
         <v>297.8765009435812</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (169.9206730579862 -46.29449973126751, 169.9315309832989 -46.29685094401741)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>169.9206730579862</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.29449973126751</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>169.9315309832989</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.29685094401741</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>169.9261020206425</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.29567533764246</v>
       </c>
     </row>
@@ -17214,27 +17223,28 @@
       <c r="P6" t="n">
         <v>314.8073795530461</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (169.92042779083008 -46.29509683039632, 169.93128578747172 -46.29744805329776)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>169.9204277908301</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.29509683039632</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>169.9312857874717</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.29744805329776</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>169.9258567891509</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.29627244184704</v>
       </c>
     </row>

--- a/data/nzd0525/nzd0525.xlsx
+++ b/data/nzd0525/nzd0525.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G452"/>
+  <dimension ref="A1:G455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11843,6 +11843,87 @@
       <c r="G452" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>382.86</v>
+      </c>
+      <c r="C453" t="n">
+        <v>392.63</v>
+      </c>
+      <c r="D453" t="n">
+        <v>378.7</v>
+      </c>
+      <c r="E453" t="n">
+        <v>372.4854545454546</v>
+      </c>
+      <c r="F453" t="n">
+        <v>364.1354545454545</v>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>379.5344444444444</v>
+      </c>
+      <c r="C454" t="n">
+        <v>375.4933333333333</v>
+      </c>
+      <c r="D454" t="n">
+        <v>378.0966666666667</v>
+      </c>
+      <c r="E454" t="n">
+        <v>371.0281818181818</v>
+      </c>
+      <c r="F454" t="n">
+        <v>359.2381818181818</v>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>384.5522222222222</v>
+      </c>
+      <c r="C455" t="n">
+        <v>384.1766666666666</v>
+      </c>
+      <c r="D455" t="n">
+        <v>381.4133333333333</v>
+      </c>
+      <c r="E455" t="n">
+        <v>375.5518181818182</v>
+      </c>
+      <c r="F455" t="n">
+        <v>366.2418181818182</v>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11857,7 +11938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B485"/>
+  <dimension ref="A1:B488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16715,6 +16796,36 @@
       </c>
       <c r="B485" t="n">
         <v>-0.82</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -16888,28 +16999,28 @@
         <v>0.1826</v>
       </c>
       <c r="I2" t="n">
-        <v>2.873579794105605</v>
+        <v>2.883593499634033</v>
       </c>
       <c r="J2" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K2" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7002473834752677</v>
+        <v>0.7051601971526305</v>
       </c>
       <c r="M2" t="n">
-        <v>11.3216374708169</v>
+        <v>11.27223986834095</v>
       </c>
       <c r="N2" t="n">
-        <v>196.9991035102845</v>
+        <v>195.7413402082259</v>
       </c>
       <c r="O2" t="n">
-        <v>14.03563691145808</v>
+        <v>13.99075910050008</v>
       </c>
       <c r="P2" t="n">
-        <v>302.4136497587284</v>
+        <v>302.3192219505706</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16966,28 +17077,28 @@
         <v>0.1409</v>
       </c>
       <c r="I3" t="n">
-        <v>3.052459795842698</v>
+        <v>3.065984324209042</v>
       </c>
       <c r="J3" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K3" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6854778731617561</v>
+        <v>0.6903369568774358</v>
       </c>
       <c r="M3" t="n">
-        <v>12.40966016386494</v>
+        <v>12.37308329960342</v>
       </c>
       <c r="N3" t="n">
-        <v>235.1930122514763</v>
+        <v>234.308172315025</v>
       </c>
       <c r="O3" t="n">
-        <v>15.33600379014938</v>
+        <v>15.30712815374017</v>
       </c>
       <c r="P3" t="n">
-        <v>297.235511112953</v>
+        <v>297.1071992443805</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17044,28 +17155,28 @@
         <v>0.104</v>
       </c>
       <c r="I4" t="n">
-        <v>3.050971493736006</v>
+        <v>3.061186801105403</v>
       </c>
       <c r="J4" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K4" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7042522352622422</v>
+        <v>0.7091016626059403</v>
       </c>
       <c r="M4" t="n">
-        <v>11.7640390937001</v>
+        <v>11.71560411929842</v>
       </c>
       <c r="N4" t="n">
-        <v>214.9129794386709</v>
+        <v>213.5171690186243</v>
       </c>
       <c r="O4" t="n">
-        <v>14.65991062178317</v>
+        <v>14.61222669611392</v>
       </c>
       <c r="P4" t="n">
-        <v>294.8315084267606</v>
+        <v>294.7342962515295</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17122,28 +17233,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8107056160615</v>
+        <v>2.81559010631215</v>
       </c>
       <c r="J5" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K5" t="n">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6932915991754434</v>
+        <v>0.6976575662157978</v>
       </c>
       <c r="M5" t="n">
-        <v>10.76635011077021</v>
+        <v>10.70174499600232</v>
       </c>
       <c r="N5" t="n">
-        <v>192.4950859784684</v>
+        <v>191.0466705722971</v>
       </c>
       <c r="O5" t="n">
-        <v>13.87425983533782</v>
+        <v>13.82196333999975</v>
       </c>
       <c r="P5" t="n">
-        <v>297.8765009435812</v>
+        <v>297.8295268259182</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17200,28 +17311,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>1.975948850781329</v>
+        <v>1.972274937292538</v>
       </c>
       <c r="J6" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K6" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5639054996017103</v>
+        <v>0.5672710736233909</v>
       </c>
       <c r="M6" t="n">
-        <v>10.36796517264337</v>
+        <v>10.30832415965424</v>
       </c>
       <c r="N6" t="n">
-        <v>164.2047845152519</v>
+        <v>162.9793431759968</v>
       </c>
       <c r="O6" t="n">
-        <v>12.8142414724888</v>
+        <v>12.76633632550846</v>
       </c>
       <c r="P6" t="n">
-        <v>314.8073795530461</v>
+        <v>314.842879004026</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17259,7 +17370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G452"/>
+  <dimension ref="A1:G455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32383,6 +32494,117 @@
         </is>
       </c>
     </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>-46.29373525308756,169.92615017552527</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>-46.29435858123361,169.92602595053796</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>-46.294918343250146,169.92560821678865</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>-46.29549879001439,169.92528603218557</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>-46.296073502825536,169.92493739921758</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>-46.293726334536025,169.92610899123457</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>-46.29431262343459,169.92581372472665</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>-46.294916725189616,169.92560074485058</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>-46.295494881757904,169.92526798452866</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>-46.296060368674134,169.9248767481888</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>-46.293739791322515,169.92617113232143</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>-46.29433591079394,169.92592126178138</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>-46.294925620046804,169.92564181987493</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>-46.29550701367909,169.92532400770696</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>-46.29607915193944,169.924963485812</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0525/nzd0525.xlsx
+++ b/data/nzd0525/nzd0525.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G455"/>
+  <dimension ref="A1:G456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11924,6 +11924,33 @@
       <c r="G455" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>379.2588888888889</v>
+      </c>
+      <c r="C456" t="n">
+        <v>375.0766666666667</v>
+      </c>
+      <c r="D456" t="n">
+        <v>381.6733333333333</v>
+      </c>
+      <c r="E456" t="n">
+        <v>370.2527272727273</v>
+      </c>
+      <c r="F456" t="n">
+        <v>362.7927272727272</v>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11938,7 +11965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B488"/>
+  <dimension ref="A1:B489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16826,6 +16853,16 @@
       </c>
       <c r="B488" t="n">
         <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -16999,28 +17036,28 @@
         <v>0.1826</v>
       </c>
       <c r="I2" t="n">
-        <v>2.883593499634033</v>
+        <v>2.885083546065281</v>
       </c>
       <c r="J2" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K2" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7051601971526305</v>
+        <v>0.706606808756655</v>
       </c>
       <c r="M2" t="n">
-        <v>11.27223986834095</v>
+        <v>11.24815091664629</v>
       </c>
       <c r="N2" t="n">
-        <v>195.7413402082259</v>
+        <v>195.2344353569229</v>
       </c>
       <c r="O2" t="n">
-        <v>13.99075910050008</v>
+        <v>13.97263165466416</v>
       </c>
       <c r="P2" t="n">
-        <v>302.3192219505706</v>
+        <v>302.305122824536</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17077,28 +17114,28 @@
         <v>0.1409</v>
       </c>
       <c r="I3" t="n">
-        <v>3.065984324209042</v>
+        <v>3.065523816269632</v>
       </c>
       <c r="J3" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K3" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6903369568774358</v>
+        <v>0.6915342969587499</v>
       </c>
       <c r="M3" t="n">
-        <v>12.37308329960342</v>
+        <v>12.34327909789554</v>
       </c>
       <c r="N3" t="n">
-        <v>234.308172315025</v>
+        <v>233.6983942161681</v>
       </c>
       <c r="O3" t="n">
-        <v>15.30712815374017</v>
+        <v>15.28719706866396</v>
       </c>
       <c r="P3" t="n">
-        <v>297.1071992443805</v>
+        <v>297.1115899121208</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17155,28 +17192,28 @@
         <v>0.104</v>
       </c>
       <c r="I4" t="n">
-        <v>3.061186801105403</v>
+        <v>3.065585984296991</v>
       </c>
       <c r="J4" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K4" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7091016626059403</v>
+        <v>0.7107615871303867</v>
       </c>
       <c r="M4" t="n">
-        <v>11.71560411929842</v>
+        <v>11.704166758198</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5171690186243</v>
+        <v>213.1262219100235</v>
       </c>
       <c r="O4" t="n">
-        <v>14.61222669611392</v>
+        <v>14.59884317026605</v>
       </c>
       <c r="P4" t="n">
-        <v>294.7342962515295</v>
+        <v>294.6923004681111</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17233,28 +17270,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>2.81559010631215</v>
+        <v>2.815598389774278</v>
       </c>
       <c r="J5" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K5" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6976575662157978</v>
+        <v>0.6988885862005338</v>
       </c>
       <c r="M5" t="n">
-        <v>10.70174499600232</v>
+        <v>10.67316788335438</v>
       </c>
       <c r="N5" t="n">
-        <v>191.0466705722971</v>
+        <v>190.535851251362</v>
       </c>
       <c r="O5" t="n">
-        <v>13.82196333999975</v>
+        <v>13.80347243454928</v>
       </c>
       <c r="P5" t="n">
-        <v>297.8295268259182</v>
+        <v>297.8294469500121</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17311,28 +17348,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>1.972274937292538</v>
+        <v>1.970779337649962</v>
       </c>
       <c r="J6" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K6" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5672710736233909</v>
+        <v>0.5683342114599514</v>
       </c>
       <c r="M6" t="n">
-        <v>10.30832415965424</v>
+        <v>10.28903250693357</v>
       </c>
       <c r="N6" t="n">
-        <v>162.9793431759968</v>
+        <v>162.5594230171609</v>
       </c>
       <c r="O6" t="n">
-        <v>12.76633632550846</v>
+        <v>12.74987933343531</v>
       </c>
       <c r="P6" t="n">
-        <v>314.842879004026</v>
+        <v>314.857391304432</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17370,7 +17407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G455"/>
+  <dimension ref="A1:G456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32605,6 +32642,43 @@
         </is>
       </c>
     </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>-46.293725595544146,169.92610557870458</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>-46.294311505996426,169.92580856460168</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>-46.29492631733148,169.92564503982715</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>-46.295492802066946,169.92525838087954</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>-46.296069901725716,169.9249207700017</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0525/nzd0525.xlsx
+++ b/data/nzd0525/nzd0525.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G456"/>
+  <dimension ref="A1:G458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11951,6 +11951,60 @@
       <c r="G456" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>356.5</v>
+      </c>
+      <c r="C457" t="n">
+        <v>353.27</v>
+      </c>
+      <c r="D457" t="n">
+        <v>351.9</v>
+      </c>
+      <c r="E457" t="n">
+        <v>351.9781818181818</v>
+      </c>
+      <c r="F457" t="n">
+        <v>351.2681818181818</v>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>373.59</v>
+      </c>
+      <c r="C458" t="n">
+        <v>368.91</v>
+      </c>
+      <c r="D458" t="n">
+        <v>364.45</v>
+      </c>
+      <c r="E458" t="n">
+        <v>365.4318181818182</v>
+      </c>
+      <c r="F458" t="n">
+        <v>363.5918181818182</v>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11965,7 +12019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B489"/>
+  <dimension ref="A1:B491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16863,6 +16917,26 @@
       </c>
       <c r="B489" t="n">
         <v>0.62</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>-0.54</v>
       </c>
     </row>
   </sheetData>
@@ -17036,28 +17110,28 @@
         <v>0.1826</v>
       </c>
       <c r="I2" t="n">
-        <v>2.885083546065281</v>
+        <v>2.872639268577891</v>
       </c>
       <c r="J2" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K2" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L2" t="n">
-        <v>0.706606808756655</v>
+        <v>0.7061334119155556</v>
       </c>
       <c r="M2" t="n">
-        <v>11.24815091664629</v>
+        <v>11.26006984058546</v>
       </c>
       <c r="N2" t="n">
-        <v>195.2344353569229</v>
+        <v>195.3015113095037</v>
       </c>
       <c r="O2" t="n">
-        <v>13.97263165466416</v>
+        <v>13.97503171050083</v>
       </c>
       <c r="P2" t="n">
-        <v>302.305122824536</v>
+        <v>302.423361322538</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17114,28 +17188,28 @@
         <v>0.1409</v>
       </c>
       <c r="I3" t="n">
-        <v>3.065523816269632</v>
+        <v>3.049756773872502</v>
       </c>
       <c r="J3" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K3" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6915342969587499</v>
+        <v>0.6904982268256493</v>
       </c>
       <c r="M3" t="n">
-        <v>12.34327909789554</v>
+        <v>12.3637680179713</v>
       </c>
       <c r="N3" t="n">
-        <v>233.6983942161681</v>
+        <v>233.9718721136766</v>
       </c>
       <c r="O3" t="n">
-        <v>15.28719706866396</v>
+        <v>15.2961391244221</v>
       </c>
       <c r="P3" t="n">
-        <v>297.1115899121208</v>
+        <v>297.2625492119519</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17192,28 +17266,28 @@
         <v>0.104</v>
       </c>
       <c r="I4" t="n">
-        <v>3.065585984296991</v>
+        <v>3.048976881262453</v>
       </c>
       <c r="J4" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K4" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7107615871303867</v>
+        <v>0.7095710919606835</v>
       </c>
       <c r="M4" t="n">
-        <v>11.704166758198</v>
+        <v>11.73218110033083</v>
       </c>
       <c r="N4" t="n">
-        <v>213.1262219100235</v>
+        <v>213.4792123716407</v>
       </c>
       <c r="O4" t="n">
-        <v>14.59884317026605</v>
+        <v>14.61092784088816</v>
       </c>
       <c r="P4" t="n">
-        <v>294.6923004681111</v>
+        <v>294.8515313504469</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17270,28 +17344,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>2.815598389774278</v>
+        <v>2.803254114624723</v>
       </c>
       <c r="J5" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K5" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6988885862005338</v>
+        <v>0.6984266553719891</v>
       </c>
       <c r="M5" t="n">
-        <v>10.67316788335438</v>
+        <v>10.68582882226151</v>
       </c>
       <c r="N5" t="n">
-        <v>190.535851251362</v>
+        <v>190.4894487962146</v>
       </c>
       <c r="O5" t="n">
-        <v>13.80347243454928</v>
+        <v>13.80179150676515</v>
       </c>
       <c r="P5" t="n">
-        <v>297.8294469500121</v>
+        <v>297.9489886558428</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17348,28 +17422,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>1.970779337649962</v>
+        <v>1.961900790633214</v>
       </c>
       <c r="J6" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K6" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5683342114599514</v>
+        <v>0.5681941845159435</v>
       </c>
       <c r="M6" t="n">
-        <v>10.28903250693357</v>
+        <v>10.28394176248937</v>
       </c>
       <c r="N6" t="n">
-        <v>162.5594230171609</v>
+        <v>162.2520499604676</v>
       </c>
       <c r="O6" t="n">
-        <v>12.74987933343531</v>
+        <v>12.73781967058992</v>
       </c>
       <c r="P6" t="n">
-        <v>314.857391304432</v>
+        <v>314.9438950559937</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17407,7 +17481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G456"/>
+  <dimension ref="A1:G458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32679,6 +32753,80 @@
         </is>
       </c>
     </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>-46.293664559833026,169.92582372883098</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>-46.29425302343423,169.92553850460956</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>-46.29484646871903,169.92527631457259</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>-46.2954437913485,169.92503205923143</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>-46.29603899361037,169.92477804256092</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>-46.29371039255171,169.92603537417799</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>-46.29429496788494,169.92573219477794</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>-46.29488012649947,169.92543173881742</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>-46.29547987285676,169.92519867614718</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>-46.29607204483145,169.92493066646776</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0525/nzd0525.xlsx
+++ b/data/nzd0525/nzd0525.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G458"/>
+  <dimension ref="A1:G464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12003,6 +12003,164 @@
         <v>363.5918181818182</v>
       </c>
       <c r="G458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>367.5955555555556</v>
+      </c>
+      <c r="C459" t="n">
+        <v>366.0666666666667</v>
+      </c>
+      <c r="D459" t="n">
+        <v>363.2533333333333</v>
+      </c>
+      <c r="E459" t="n">
+        <v>362.3581818181818</v>
+      </c>
+      <c r="F459" t="n">
+        <v>358.9181818181818</v>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>375.2933333333333</v>
+      </c>
+      <c r="C460" t="n">
+        <v>366.83</v>
+      </c>
+      <c r="D460" t="n">
+        <v>367.92</v>
+      </c>
+      <c r="E460" t="n">
+        <v>362.03</v>
+      </c>
+      <c r="F460" t="n">
+        <v>354.59</v>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>370.7577777777778</v>
+      </c>
+      <c r="C461" t="n">
+        <v>363.9133333333334</v>
+      </c>
+      <c r="D461" t="n">
+        <v>365.0766666666667</v>
+      </c>
+      <c r="E461" t="n">
+        <v>359.5727272727273</v>
+      </c>
+      <c r="F461" t="n">
+        <v>353.0627272727273</v>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>379.6355555555555</v>
+      </c>
+      <c r="C462" t="n">
+        <v>373.1766666666667</v>
+      </c>
+      <c r="D462" t="n">
+        <v>371.7333333333333</v>
+      </c>
+      <c r="E462" t="n">
+        <v>368.7554545454545</v>
+      </c>
+      <c r="F462" t="n">
+        <v>362.1454545454546</v>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>380.4966666666666</v>
+      </c>
+      <c r="C463" t="n">
+        <v>373.01</v>
+      </c>
+      <c r="D463" t="n">
+        <v>365.83</v>
+      </c>
+      <c r="E463" t="n">
+        <v>368.6972727272728</v>
+      </c>
+      <c r="F463" t="n">
+        <v>362.4972727272727</v>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr"/>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="n">
+        <v>378.8966666666667</v>
+      </c>
+      <c r="E464" t="n">
+        <v>376.1263636363637</v>
+      </c>
+      <c r="F464" t="n">
+        <v>368.6163636363637</v>
+      </c>
+      <c r="G464" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12019,7 +12177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B491"/>
+  <dimension ref="A1:B498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16937,6 +17095,76 @@
       </c>
       <c r="B491" t="n">
         <v>-0.54</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -17110,28 +17338,28 @@
         <v>0.1826</v>
       </c>
       <c r="I2" t="n">
-        <v>2.872639268577891</v>
+        <v>2.867536545142169</v>
       </c>
       <c r="J2" t="n">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K2" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7061334119155556</v>
+        <v>0.7110648476055118</v>
       </c>
       <c r="M2" t="n">
-        <v>11.26006984058546</v>
+        <v>11.17568428236556</v>
       </c>
       <c r="N2" t="n">
-        <v>195.3015113095037</v>
+        <v>193.0904225028909</v>
       </c>
       <c r="O2" t="n">
-        <v>13.97503171050083</v>
+        <v>13.89569798545186</v>
       </c>
       <c r="P2" t="n">
-        <v>302.423361322538</v>
+        <v>302.4718934632726</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17188,28 +17416,28 @@
         <v>0.1409</v>
       </c>
       <c r="I3" t="n">
-        <v>3.049756773872502</v>
+        <v>3.030734047465654</v>
       </c>
       <c r="J3" t="n">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K3" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6904982268256493</v>
+        <v>0.6931546706933729</v>
       </c>
       <c r="M3" t="n">
-        <v>12.3637680179713</v>
+        <v>12.30784948036387</v>
       </c>
       <c r="N3" t="n">
-        <v>233.9718721136766</v>
+        <v>231.8585825217376</v>
       </c>
       <c r="O3" t="n">
-        <v>15.2961391244221</v>
+        <v>15.22690324792726</v>
       </c>
       <c r="P3" t="n">
-        <v>297.2625492119519</v>
+        <v>297.4451917869142</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17266,28 +17494,28 @@
         <v>0.104</v>
       </c>
       <c r="I4" t="n">
-        <v>3.048976881262453</v>
+        <v>3.033789455032013</v>
       </c>
       <c r="J4" t="n">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K4" t="n">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7095710919606835</v>
+        <v>0.7139394546336049</v>
       </c>
       <c r="M4" t="n">
-        <v>11.73218110033083</v>
+        <v>11.656982697671</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4792123716407</v>
+        <v>210.9258075984767</v>
       </c>
       <c r="O4" t="n">
-        <v>14.61092784088816</v>
+        <v>14.52328501402065</v>
       </c>
       <c r="P4" t="n">
-        <v>294.8515313504469</v>
+        <v>294.9974984367616</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17344,28 +17572,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>2.803254114624723</v>
+        <v>2.790488697985849</v>
       </c>
       <c r="J5" t="n">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K5" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6984266553719891</v>
+        <v>0.7028042735429347</v>
       </c>
       <c r="M5" t="n">
-        <v>10.68582882226151</v>
+        <v>10.61844302773412</v>
       </c>
       <c r="N5" t="n">
-        <v>190.4894487962146</v>
+        <v>188.2464063844441</v>
       </c>
       <c r="O5" t="n">
-        <v>13.80179150676515</v>
+        <v>13.72029177475625</v>
       </c>
       <c r="P5" t="n">
-        <v>297.9489886558428</v>
+        <v>298.0728704343958</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17422,28 +17650,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>1.961900790633214</v>
+        <v>1.944237018911071</v>
       </c>
       <c r="J6" t="n">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K6" t="n">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5681941845159435</v>
+        <v>0.5708634392373858</v>
       </c>
       <c r="M6" t="n">
-        <v>10.28394176248937</v>
+        <v>10.23549336512041</v>
       </c>
       <c r="N6" t="n">
-        <v>162.2520499604676</v>
+        <v>160.602527720673</v>
       </c>
       <c r="O6" t="n">
-        <v>12.73781967058992</v>
+        <v>12.672905259674</v>
       </c>
       <c r="P6" t="n">
-        <v>314.9438950559937</v>
+        <v>315.116473913494</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17481,7 +17709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G458"/>
+  <dimension ref="A1:G464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32827,6 +33055,220 @@
         </is>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>-46.29369431642889,169.9259611379581</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>-46.29428734245777,169.92569698211335</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>-46.29487691717422,169.9254169188077</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>-46.295471629646464,169.92516061059595</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>-46.29605951045486,169.92487278510055</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>-46.29371496060542,169.92605646855614</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>-46.29428938961336,169.92570643545372</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>-46.29488943263807,169.92547471272766</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>-46.295470749492246,169.9251565462181</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>-46.29604790253839,169.92481918209305</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>-46.2937027969993,169.9260002994504</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>-46.29428156750821,169.9256703146157</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>-46.29488180714815,169.92543949971457</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>-46.2954641593026,169.92512611405238</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>-46.29604380648133,169.92480026736388</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>-46.293726605698346,169.92611024341292</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-46.29430641047551,169.9257850344346</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>-46.294899659538714,169.9255219386371</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-46.295488786530115,169.92523983784523</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>-46.296068165785094,169.9249127537522</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-46.293728915047254,169.9261209075698</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-46.29430596349977,169.9257829703851</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-46.294883827501735,169.92544882930437</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-46.295488630492194,169.92523911729023</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>-46.296069109337154,169.92491711089897</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr"/>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>-46.294918870684135,169.92561065239286</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-46.29550855454818,169.92533112319288</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>-46.296085520290454,169.92499289375345</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0525/nzd0525.xlsx
+++ b/data/nzd0525/nzd0525.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G464"/>
+  <dimension ref="A1:G468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12161,6 +12161,114 @@
         <v>368.6163636363637</v>
       </c>
       <c r="G464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>368.6822222222222</v>
+      </c>
+      <c r="C465" t="n">
+        <v>378.4566666666666</v>
+      </c>
+      <c r="D465" t="n">
+        <v>370.7333333333333</v>
+      </c>
+      <c r="E465" t="n">
+        <v>363.4663636363636</v>
+      </c>
+      <c r="F465" t="n">
+        <v>356.2063636363636</v>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>362.66</v>
+      </c>
+      <c r="C466" t="n">
+        <v>371.32</v>
+      </c>
+      <c r="D466" t="n">
+        <v>363.47</v>
+      </c>
+      <c r="E466" t="n">
+        <v>363.9281818181818</v>
+      </c>
+      <c r="F466" t="n">
+        <v>362.0581818181818</v>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:00+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>364.7077777777778</v>
+      </c>
+      <c r="C467" t="n">
+        <v>358.2733333333334</v>
+      </c>
+      <c r="D467" t="n">
+        <v>355.2766666666667</v>
+      </c>
+      <c r="E467" t="n">
+        <v>350.7063636363636</v>
+      </c>
+      <c r="F467" t="n">
+        <v>342.2463636363636</v>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>355.4533333333333</v>
+      </c>
+      <c r="C468" t="n">
+        <v>360.04</v>
+      </c>
+      <c r="D468" t="n">
+        <v>352.41</v>
+      </c>
+      <c r="E468" t="n">
+        <v>352.6481818181818</v>
+      </c>
+      <c r="F468" t="n">
+        <v>349.7381818181818</v>
+      </c>
+      <c r="G468" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12177,7 +12285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B498"/>
+  <dimension ref="A1:B502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17165,6 +17273,46 @@
       </c>
       <c r="B498" t="n">
         <v>-0.35</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -17338,28 +17486,28 @@
         <v>0.1826</v>
       </c>
       <c r="I2" t="n">
-        <v>2.867536545142169</v>
+        <v>2.838762648580383</v>
       </c>
       <c r="J2" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K2" t="n">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7110648476055118</v>
+        <v>0.7091749675402208</v>
       </c>
       <c r="M2" t="n">
-        <v>11.17568428236556</v>
+        <v>11.22451439281469</v>
       </c>
       <c r="N2" t="n">
-        <v>193.0904225028909</v>
+        <v>193.3898787884379</v>
       </c>
       <c r="O2" t="n">
-        <v>13.89569798545186</v>
+        <v>13.90646895471449</v>
       </c>
       <c r="P2" t="n">
-        <v>302.4718934632726</v>
+        <v>302.7486530704688</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17416,28 +17564,28 @@
         <v>0.1409</v>
       </c>
       <c r="I3" t="n">
-        <v>3.030734047465654</v>
+        <v>3.012163300729617</v>
       </c>
       <c r="J3" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K3" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6931546706933729</v>
+        <v>0.6939032791298889</v>
       </c>
       <c r="M3" t="n">
-        <v>12.30784948036387</v>
+        <v>12.29583032001542</v>
       </c>
       <c r="N3" t="n">
-        <v>231.8585825217376</v>
+        <v>231.0787241167208</v>
       </c>
       <c r="O3" t="n">
-        <v>15.22690324792726</v>
+        <v>15.20127376625791</v>
       </c>
       <c r="P3" t="n">
-        <v>297.4451917869142</v>
+        <v>297.6252216529944</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17494,28 +17642,28 @@
         <v>0.104</v>
       </c>
       <c r="I4" t="n">
-        <v>3.033789455032013</v>
+        <v>3.00668785254649</v>
       </c>
       <c r="J4" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K4" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7139394546336049</v>
+        <v>0.7126046200689007</v>
       </c>
       <c r="M4" t="n">
-        <v>11.656982697671</v>
+        <v>11.68202704468751</v>
       </c>
       <c r="N4" t="n">
-        <v>210.9258075984767</v>
+        <v>211.1309503972358</v>
       </c>
       <c r="O4" t="n">
-        <v>14.52328501402065</v>
+        <v>14.53034584575453</v>
       </c>
       <c r="P4" t="n">
-        <v>294.9974984367616</v>
+        <v>295.2604936938152</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17572,28 +17720,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>2.790488697985849</v>
+        <v>2.764677000278681</v>
       </c>
       <c r="J5" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K5" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7028042735429347</v>
+        <v>0.7011933715265948</v>
       </c>
       <c r="M5" t="n">
-        <v>10.61844302773412</v>
+        <v>10.65250024495368</v>
       </c>
       <c r="N5" t="n">
-        <v>188.2464063844441</v>
+        <v>188.4016316490697</v>
       </c>
       <c r="O5" t="n">
-        <v>13.72029177475625</v>
+        <v>13.72594738621235</v>
       </c>
       <c r="P5" t="n">
-        <v>298.0728704343958</v>
+        <v>298.3259370079983</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17650,28 +17798,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>1.944237018911071</v>
+        <v>1.917632297271054</v>
       </c>
       <c r="J6" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K6" t="n">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5708634392373858</v>
+        <v>0.566059989834574</v>
       </c>
       <c r="M6" t="n">
-        <v>10.23549336512041</v>
+        <v>10.27663320669914</v>
       </c>
       <c r="N6" t="n">
-        <v>160.602527720673</v>
+        <v>161.263442217812</v>
       </c>
       <c r="O6" t="n">
-        <v>12.672905259674</v>
+        <v>12.69895437497954</v>
       </c>
       <c r="P6" t="n">
-        <v>315.116473913494</v>
+        <v>315.3788540972242</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17709,7 +17857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G464"/>
+  <dimension ref="A1:G468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33269,6 +33417,154 @@
         </is>
       </c>
     </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>-46.29369723069527,169.9259745954196</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-46.2943205706482,169.92585042354185</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-46.29489697766103,169.92550955421848</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-46.29547460168971,169.92517433490897</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-46.29605223752878,169.92483920018464</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-46.293681080038034,169.9259000152327</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-46.294301431163646,169.92576204092492</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-46.29487749824997,169.92541960209627</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-46.295475840243746,169.9251800543114</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-46.29606793172563,169.92491167290964</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:00+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-46.29368657186279,169.9259253752431</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-46.29426644176002,169.92560046726598</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-46.29485552460435,169.92531813255022</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-46.295440380428,169.92501630837742</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>-46.29601479753233,169.92466631063485</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-46.29366175282353,169.92581076675236</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>-46.294271179735304,169.92562234615957</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>-46.29484783648946,169.9252826306137</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-46.29544558823712,169.92504035685874</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>-46.296034890232235,169.92475909406193</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0525/nzd0525.xlsx
+++ b/data/nzd0525/nzd0525.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G468"/>
+  <dimension ref="A1:G469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12269,6 +12269,33 @@
         <v>349.7381818181818</v>
       </c>
       <c r="G468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>368.1811111111111</v>
+      </c>
+      <c r="C469" t="n">
+        <v>360.3733333333333</v>
+      </c>
+      <c r="D469" t="n">
+        <v>360.0366666666667</v>
+      </c>
+      <c r="E469" t="n">
+        <v>353.9390909090909</v>
+      </c>
+      <c r="F469" t="n">
+        <v>351.069090909091</v>
+      </c>
+      <c r="G469" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12285,7 +12312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B502"/>
+  <dimension ref="A1:B503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17313,6 +17340,16 @@
       </c>
       <c r="B502" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>-0.17</v>
       </c>
     </row>
   </sheetData>
@@ -17857,7 +17894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G468"/>
+  <dimension ref="A1:G469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33565,6 +33602,43 @@
         </is>
       </c>
     </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-46.293695886795525,169.9259683895757</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-46.294272073692426,169.92562647425316</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-46.2948682904271,169.92537708230049</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-46.29544905035468,169.92505634414766</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>-46.29603845965938,169.92477557689153</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0525/nzd0525.xlsx
+++ b/data/nzd0525/nzd0525.xlsx
@@ -17523,28 +17523,28 @@
         <v>0.1826</v>
       </c>
       <c r="I2" t="n">
-        <v>2.838762648580383</v>
+        <v>2.834337785586094</v>
       </c>
       <c r="J2" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K2" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7091749675402208</v>
+        <v>0.7094937566120607</v>
       </c>
       <c r="M2" t="n">
-        <v>11.22451439281469</v>
+        <v>11.22045751938334</v>
       </c>
       <c r="N2" t="n">
-        <v>193.3898787884379</v>
+        <v>193.0857686000713</v>
       </c>
       <c r="O2" t="n">
-        <v>13.90646895471449</v>
+        <v>13.89553052603863</v>
       </c>
       <c r="P2" t="n">
-        <v>302.7486530704688</v>
+        <v>302.7913945914652</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17601,28 +17601,28 @@
         <v>0.1409</v>
       </c>
       <c r="I3" t="n">
-        <v>3.012163300729617</v>
+        <v>3.004249921563141</v>
       </c>
       <c r="J3" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K3" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6939032791298889</v>
+        <v>0.6933831333183201</v>
       </c>
       <c r="M3" t="n">
-        <v>12.29583032001542</v>
+        <v>12.30872062385332</v>
       </c>
       <c r="N3" t="n">
-        <v>231.0787241167208</v>
+        <v>231.138637885107</v>
       </c>
       <c r="O3" t="n">
-        <v>15.20127376625791</v>
+        <v>15.20324432103579</v>
       </c>
       <c r="P3" t="n">
-        <v>297.6252216529944</v>
+        <v>297.7022124615054</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17679,28 +17679,28 @@
         <v>0.104</v>
       </c>
       <c r="I4" t="n">
-        <v>3.00668785254649</v>
+        <v>2.999776417527358</v>
       </c>
       <c r="J4" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K4" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7126046200689007</v>
+        <v>0.7123401528195694</v>
       </c>
       <c r="M4" t="n">
-        <v>11.68202704468751</v>
+        <v>11.68911899782671</v>
       </c>
       <c r="N4" t="n">
-        <v>211.1309503972358</v>
+        <v>211.0774636559379</v>
       </c>
       <c r="O4" t="n">
-        <v>14.53034584575453</v>
+        <v>14.52850521065185</v>
       </c>
       <c r="P4" t="n">
-        <v>295.2604936938152</v>
+        <v>295.3278288550948</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17757,28 +17757,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>2.764677000278681</v>
+        <v>2.756453445870495</v>
       </c>
       <c r="J5" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K5" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7011933715265948</v>
+        <v>0.7002980974155595</v>
       </c>
       <c r="M5" t="n">
-        <v>10.65250024495368</v>
+        <v>10.67137794731682</v>
       </c>
       <c r="N5" t="n">
-        <v>188.4016316490697</v>
+        <v>188.6286806594351</v>
       </c>
       <c r="O5" t="n">
-        <v>13.72594738621235</v>
+        <v>13.73421569145596</v>
       </c>
       <c r="P5" t="n">
-        <v>298.3259370079983</v>
+        <v>298.4069033528918</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17835,28 +17835,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>1.917632297271054</v>
+        <v>1.910354373890767</v>
       </c>
       <c r="J6" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K6" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L6" t="n">
-        <v>0.566059989834574</v>
+        <v>0.5647409076123253</v>
       </c>
       <c r="M6" t="n">
-        <v>10.27663320669914</v>
+        <v>10.29024766290419</v>
       </c>
       <c r="N6" t="n">
-        <v>161.263442217812</v>
+        <v>161.3838243937256</v>
       </c>
       <c r="O6" t="n">
-        <v>12.69895437497954</v>
+        <v>12.70369333673186</v>
       </c>
       <c r="P6" t="n">
-        <v>315.3788540972242</v>
+        <v>315.4509333408799</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">

--- a/data/nzd0525/nzd0525.xlsx
+++ b/data/nzd0525/nzd0525.xlsx
@@ -17514,13 +17514,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0615</v>
+        <v>0.1026</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1826</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>2.834335841808056</v>
@@ -17592,13 +17592,13 @@
         <v>0.2500000000012713</v>
       </c>
       <c r="F3" t="n">
-        <v>0.075</v>
+        <v>0.15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0507</v>
+        <v>0.1083</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1409</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>3.004255458806893</v>
@@ -17670,13 +17670,13 @@
         <v>0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0433</v>
+        <v>0.0941</v>
       </c>
       <c r="H4" t="n">
-        <v>0.104</v>
+        <v>0.1953</v>
       </c>
       <c r="I4" t="n">
         <v>2.99976390938361</v>
@@ -17748,13 +17748,13 @@
         <v>0.7499999999987287</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.135</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0472</v>
+        <v>0.1014</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0722</v>
+        <v>0.199</v>
       </c>
       <c r="I5" t="n">
         <v>2.756442530518981</v>
@@ -17826,13 +17826,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.105</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0442</v>
+        <v>0.0842</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06610000000000001</v>
+        <v>0.1438</v>
       </c>
       <c r="I6" t="n">
         <v>1.910343846135706</v>
